--- a/biology/Botanique/Savagnin_rose/Savagnin_rose.xlsx
+++ b/biology/Botanique/Savagnin_rose/Savagnin_rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le savagnin rose Rs[N 1], ou traminer pour les germanistes, appelé aussi klevener de Heiligenstein en Alsace, est un cépage de cuve à pellicule rose.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage provient probablement du village de Tramin dans le Tyrol italien. Cette origine a donné son nom à la famille des Traminers.
-Rapporté en 1742 d'Italie par le bourgmestre du village de Heiligenstein (dans le Bas-Rhin, en France), ce cépage est cultivé en Alsace sous le nom de klevener de Heiligenstein dans ce village et ses environs. En Belgique, il est autorisé dans l'AOC Côtes de Sambre et Meuse [1].
+Rapporté en 1742 d'Italie par le bourgmestre du village de Heiligenstein (dans le Bas-Rhin, en France), ce cépage est cultivé en Alsace sous le nom de klevener de Heiligenstein dans ce village et ses environs. En Belgique, il est autorisé dans l'AOC Côtes de Sambre et Meuse .
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'extrémité du jeune rameau est très velue.
 Les feuilles adultes sont de petite taille, trilobées, avec un sinus pétiolaire peu ouvert ou à bords chevauchants, des dents courtes ogivales, un limbe bullé et parfois gaufré et tourmenté.
-Les grappes sont petites. Les baies sont petites et sphériques, de couleur jaune-doré[2].
+Les grappes sont petites. Les baies sont petites et sphériques, de couleur jaune-doré.
 </t>
         </is>
       </c>
@@ -579,12 +595,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-Le savagnin est très bien adapté aux terroirs marneux comme ceux du Jura[3].
-Sensibilité aux maladies
-Il se montre relativement résistant, en particulier vis-à-vis de la pourriture grise, grâce à sa pellicule épaisse[3].
-Technologiques
-Son raisin permet la vinification de vins blancs.
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le savagnin est très bien adapté aux terroirs marneux comme ceux du Jura.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Savagnin_rose</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Savagnin_rose</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se montre relativement résistant, en particulier vis-à-vis de la pourriture grise, grâce à sa pellicule épaisse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Savagnin_rose</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Savagnin_rose</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son raisin permet la vinification de vins blancs.
 </t>
         </is>
       </c>
